--- a/数据整理/stocks/A股/上证主板/603876-鼎胜新材.xlsx
+++ b/数据整理/stocks/A股/上证主板/603876-鼎胜新材.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>基金代码</t>
   </si>
@@ -22,12 +22,18 @@
     <t>基金名称</t>
   </si>
   <si>
+    <t>基金金额</t>
+  </si>
+  <si>
     <t>股票总仓位</t>
   </si>
   <si>
     <t>仓位占比</t>
   </si>
   <si>
+    <t>持有市值(亿元)</t>
+  </si>
+  <si>
     <t>仓位排名</t>
   </si>
   <si>
@@ -37,10 +43,16 @@
     <t>金鹰多元策略灵活配置混合</t>
   </si>
   <si>
+    <t>1.02</t>
+  </si>
+  <si>
     <t>81.14</t>
   </si>
   <si>
     <t>3.06</t>
+  </si>
+  <si>
+    <t>0.0312</t>
   </si>
 </sst>
 </file>
@@ -398,13 +410,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -420,24 +432,36 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2">
         <v>10</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603876-鼎胜新材.xlsx
+++ b/数据整理/stocks/A股/上证主板/603876-鼎胜新材.xlsx
@@ -1,90 +1,51 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="2020-Q4" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
-  <si>
-    <t>基金代码</t>
-  </si>
-  <si>
-    <t>基金名称</t>
-  </si>
-  <si>
-    <t>基金金额</t>
-  </si>
-  <si>
-    <t>股票总仓位</t>
-  </si>
-  <si>
-    <t>仓位占比</t>
-  </si>
-  <si>
-    <t>持有市值(亿元)</t>
-  </si>
-  <si>
-    <t>仓位排名</t>
-  </si>
-  <si>
-    <t>002844</t>
-  </si>
-  <si>
-    <t>金鹰多元策略灵活配置混合</t>
-  </si>
-  <si>
-    <t>1.02</t>
-  </si>
-  <si>
-    <t>81.14</t>
-  </si>
-  <si>
-    <t>3.06</t>
-  </si>
-  <si>
-    <t>0.0312</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -107,21 +68,97 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -409,63 +446,493 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002844</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>金鹰多元策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>81.14</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0312</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>10</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>040035</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华安逆向策略混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>41.94</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>74.50</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0653</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005630</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华安研究精选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>7.79</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.27</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4113</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>006478</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>长盛多因子策略优选股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0745</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005695</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华安睿明两年定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>82.47</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0626</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002601</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中银证券价值精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0500</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>080002</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>长盛创新先锋混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>79.78</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0163</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001800</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华安新乐享灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>24.64</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0125</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001905</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华安安益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>20.23</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005696</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华安睿明两年定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>82.47</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603876-鼎胜新材.xlsx
+++ b/数据整理/stocks/A股/上证主板/603876-鼎胜新材.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -935,4 +936,478 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>310328</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>申万菱信新动力混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>22.98</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.39</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7583</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005630</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华安研究精选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>12.11</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>85.51</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5486</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>040025</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华安科技动力混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>12.23</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3131</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>003889</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇安丰泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.47</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1848</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>240017</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华宝新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>82.85</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1204</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006478</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>长盛多因子策略优选股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>81.35</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0803</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>519025</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>海富通领先成长混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0451</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011800</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>申万菱信价值精选混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>76.02</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0320</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>003890</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>汇安丰泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.47</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0253</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009486</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>光大保德信瑞和混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.19</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009487</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>光大保德信瑞和混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.19</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603876-鼎胜新材.xlsx
+++ b/数据整理/stocks/A股/上证主板/603876-鼎胜新材.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1410,4 +1411,88 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>11</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.12</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>9</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.71</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603876-鼎胜新材.xlsx
+++ b/数据整理/stocks/A股/上证主板/603876-鼎胜新材.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1419,7 +1420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1430,17 +1431,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1450,14 +1471,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>11</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.12</v>
+          <t>011800</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>申万菱信价值精选混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.93</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1525</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -1466,14 +1509,104 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>310368</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>申万菱信竞争优势混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.12</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0572</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D3" t="n">
-        <v>1.71</v>
+        <v>2.12</v>
       </c>
     </row>
     <row r="4">
@@ -1482,13 +1615,29 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>9</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.71</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>1</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0.03</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603876-鼎胜新材.xlsx
+++ b/数据整理/stocks/A股/上证主板/603876-鼎胜新材.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1552,7 +1553,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1563,17 +1564,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1583,14 +1604,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.21</v>
+          <t>009011</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏睿阳一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>17.06</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>82.70</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3583</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1599,14 +1642,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>11</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.12</v>
+          <t>004332</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>恒生前海沪港深新兴产业精选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>80.98</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0236</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -1615,14 +1680,120 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>011800</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>申万菱信价值精选混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>81.46</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0205</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D4" t="n">
-        <v>1.71</v>
+        <v>2.12</v>
       </c>
     </row>
     <row r="5">
@@ -1631,13 +1802,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>9</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.71</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>1</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.03</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603876-鼎胜新材.xlsx
+++ b/数据整理/stocks/A股/上证主板/603876-鼎胜新材.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1723,7 +1724,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1734,17 +1735,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1754,14 +1775,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.4</v>
+          <t>000006</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>西部利得量化成长混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>17.31</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.79</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2320</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1770,14 +1813,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.21</v>
+          <t>001105</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>信达澳银转型创新股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2232</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -1786,14 +1851,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>11</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2.12</v>
+          <t>010779</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>西部利得量化优选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7.65</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.46</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1836</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -1802,14 +1889,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>9</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1.71</v>
+          <t>630010</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华商价值精选混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.71</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1656</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -1818,13 +1927,773 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>003857</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>前海开源周期优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1513</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>003131</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国寿安保强国智造灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.92</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1129</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>100039</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国通胀通缩主题混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.74</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0972</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>014126</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华夏中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>8.91</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.38</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0766</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>007146</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>鹏华研究智选混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>79.25</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0716</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>004332</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>恒生前海沪港深新兴产业精选混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>9.32</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0559</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>003858</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>前海开源周期优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0447</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005683</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国寿安保华兴灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0429</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010780</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>西部利得量化优选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.46</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0353</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>630006</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华商产业升级混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.15</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0327</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011228</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>西部利得量化成长混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>89.79</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0225</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010765</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>国寿安保华丰混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>89.80</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0109</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>014125</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华夏中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>90.38</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011494</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华泰紫金丰和偏债混合型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>33.96</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001932</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>国寿安保灵活优选混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>38.62</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011495</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华泰紫金丰和偏债混合型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>33.96</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010766</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>国寿安保华丰混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>89.80</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>21</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.57</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>11</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.12</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>9</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.71</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>1</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.03</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603876-鼎胜新材.xlsx
+++ b/数据整理/stocks/A股/上证主板/603876-鼎胜新材.xlsx
@@ -6,13 +6,13 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,91 +456,129 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>002844</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>金鹰多元策略灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>1.02</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>81.14</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.06</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0312</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>10</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>21</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.57</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>11</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.12</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>9</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.71</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.03</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -550,7 +588,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -571,7 +609,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -601,36 +639,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>040035</t>
+          <t>000006</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华安逆向策略混合</t>
+          <t>西部利得量化成长混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>41.94</t>
+          <t>17.31</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>74.50</t>
+          <t>89.79</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.54</t>
+          <t>1.34</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.0653</t>
+          <t>0.2320</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -639,36 +677,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>005630</t>
+          <t>001105</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华安研究精选混合</t>
+          <t>信达澳银转型创新股票</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>7.79</t>
+          <t>4.79</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>90.27</t>
+          <t>91.61</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.28</t>
+          <t>4.66</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.4113</t>
+          <t>0.2232</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -677,36 +715,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>006478</t>
+          <t>010779</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>长盛多因子策略优选股票</t>
+          <t>西部利得量化优选一年持有期混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.53</t>
+          <t>7.65</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.66</t>
+          <t>90.46</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.87</t>
+          <t>2.40</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0745</t>
+          <t>0.1836</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -715,32 +753,32 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>005695</t>
+          <t>630010</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>华安睿明两年定期开放灵活配置混合A</t>
+          <t>华商价值精选混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2.30</t>
+          <t>4.90</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>82.47</t>
+          <t>90.71</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.72</t>
+          <t>3.38</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0626</t>
+          <t>0.1656</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -753,36 +791,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>002601</t>
+          <t>003857</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>中银证券价值精选灵活配置混合</t>
+          <t>前海开源周期优选灵活配置混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.89</t>
+          <t>3.86</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>94.24</t>
+          <t>92.94</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>5.62</t>
+          <t>3.92</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0500</t>
+          <t>0.1513</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -791,36 +829,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>080002</t>
+          <t>003131</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>长盛创新先锋混合</t>
+          <t>国寿安保强国智造灵活配置混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.86</t>
+          <t>5.04</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>79.78</t>
+          <t>89.92</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>1.90</t>
+          <t>2.24</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0163</t>
+          <t>0.1129</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
@@ -829,36 +867,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>001800</t>
+          <t>100039</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>华安新乐享灵活配置混合</t>
+          <t>富国通胀通缩主题混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.51</t>
+          <t>4.28</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>24.64</t>
+          <t>89.74</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2.46</t>
+          <t>2.27</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0125</t>
+          <t>0.0972</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -867,36 +905,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>001905</t>
+          <t>014126</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>华安安益灵活配置混合</t>
+          <t>华夏中证1000指数增强C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.52</t>
+          <t>8.91</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>20.23</t>
+          <t>90.38</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>1.97</t>
+          <t>0.86</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0102</t>
+          <t>0.0766</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
@@ -905,36 +943,490 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>005696</t>
+          <t>007146</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>华安睿明两年定期开放灵活配置混合C</t>
+          <t>鹏华研究智选混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.12</t>
+          <t>3.85</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>82.47</t>
+          <t>79.25</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2.72</t>
+          <t>1.86</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0033</t>
+          <t>0.0716</t>
         </is>
       </c>
       <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>004332</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>恒生前海沪港深新兴产业精选混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>9.32</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0559</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>003858</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>前海开源周期优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0447</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005683</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国寿安保华兴灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0429</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010780</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>西部利得量化优选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.46</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0353</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>630006</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华商产业升级混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.15</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0327</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
         <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011228</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>西部利得量化成长混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>89.79</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0225</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010765</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>国寿安保华丰混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>89.80</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0109</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>014125</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华夏中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>90.38</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011494</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华泰紫金丰和偏债混合型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>33.96</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001932</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>国寿安保灵活优选混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>38.62</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011495</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华泰紫金丰和偏债混合型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>33.96</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010766</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>国寿安保华丰混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>89.80</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -948,7 +1440,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -969,7 +1461,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -999,36 +1491,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>310328</t>
+          <t>009011</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>申万菱信新动力混合</t>
+          <t>华夏睿阳一年持有期混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>22.98</t>
+          <t>17.06</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>91.39</t>
+          <t>82.70</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>2.10</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.7583</t>
+          <t>0.3583</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1037,22 +1529,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>005630</t>
+          <t>004332</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华安研究精选混合</t>
+          <t>恒生前海沪港深新兴产业精选混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>12.11</t>
+          <t>0.52</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>85.51</t>
+          <t>80.98</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -1062,11 +1554,11 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.5486</t>
+          <t>0.0236</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -1075,340 +1567,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>040025</t>
+          <t>011800</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>华安科技动力混合</t>
+          <t>申万菱信价值精选混合型证券投资基金</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>12.23</t>
+          <t>0.57</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.09</t>
+          <t>81.46</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.56</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.3131</t>
+          <t>0.0205</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
         <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>003889</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>汇安丰泽灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>6.35</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>92.47</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2.91</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.1848</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>240017</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>华宝新兴产业混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>4.41</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>82.85</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2.73</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.1204</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>006478</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>长盛多因子策略优选股票</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>1.85</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>81.35</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>4.34</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0803</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>519025</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>海富通领先成长混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>1.55</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>93.07</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2.91</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0451</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>011800</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>申万菱信价值精选混合型证券投资基金</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>1.20</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>76.02</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>2.67</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0320</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>003890</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>汇安丰泽灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.87</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>92.47</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>2.91</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0253</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>009486</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>光大保德信瑞和混合A</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.14</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>90.19</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>3.95</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0055</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>009487</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>光大保德信瑞和混合C</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.08</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>90.19</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>3.95</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0032</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1554,7 +1742,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1575,7 +1763,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1605,36 +1793,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>009011</t>
+          <t>310328</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华夏睿阳一年持有期混合</t>
+          <t>申万菱信新动力混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>17.06</t>
+          <t>22.98</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>82.70</t>
+          <t>91.39</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.10</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.3583</t>
+          <t>0.7583</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1643,22 +1831,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>004332</t>
+          <t>005630</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>恒生前海沪港深新兴产业精选混合</t>
+          <t>华安研究精选混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.52</t>
+          <t>12.11</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>80.98</t>
+          <t>85.51</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -1668,11 +1856,11 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0236</t>
+          <t>0.5486</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1681,36 +1869,340 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>040025</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华安科技动力混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>12.23</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3131</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>003889</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇安丰泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.47</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1848</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>240017</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华宝新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>82.85</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1204</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006478</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>长盛多因子策略优选股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>81.35</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0803</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>519025</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>海富通领先成长混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0451</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>011800</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>申万菱信价值精选混合型证券投资基金</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.57</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>81.46</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.60</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0205</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>3</v>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>76.02</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0320</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>003890</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>汇安丰泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.47</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0253</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009486</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>光大保德信瑞和混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.19</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009487</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>光大保德信瑞和混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.19</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1724,7 +2216,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1745,7 +2237,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1775,36 +2267,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>000006</t>
+          <t>040035</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>西部利得量化成长混合A</t>
+          <t>华安逆向策略混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>17.31</t>
+          <t>41.94</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>89.79</t>
+          <t>74.50</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.34</t>
+          <t>2.54</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.2320</t>
+          <t>1.0653</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1813,36 +2305,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001105</t>
+          <t>005630</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>信达澳银转型创新股票</t>
+          <t>华安研究精选混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4.79</t>
+          <t>7.79</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>91.61</t>
+          <t>90.27</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.66</t>
+          <t>5.28</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.2232</t>
+          <t>0.4113</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -1851,36 +2343,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>010779</t>
+          <t>006478</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>西部利得量化优选一年持有期混合A</t>
+          <t>长盛多因子策略优选股票</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>7.65</t>
+          <t>1.53</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>90.46</t>
+          <t>94.66</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.40</t>
+          <t>4.87</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1836</t>
+          <t>0.0745</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -1889,32 +2381,32 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>630010</t>
+          <t>005695</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>华商价值精选混合</t>
+          <t>华安睿明两年定期开放灵活配置混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>4.90</t>
+          <t>2.30</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>90.71</t>
+          <t>82.47</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.38</t>
+          <t>2.72</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.1656</t>
+          <t>0.0626</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -1927,36 +2419,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>003857</t>
+          <t>002601</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>前海开源周期优选灵活配置混合A</t>
+          <t>中银证券价值精选灵活配置混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>3.86</t>
+          <t>0.89</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>92.94</t>
+          <t>94.24</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.92</t>
+          <t>5.62</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.1513</t>
+          <t>0.0500</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -1965,36 +2457,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>003131</t>
+          <t>080002</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>国寿安保强国智造灵活配置混合</t>
+          <t>长盛创新先锋混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>5.04</t>
+          <t>0.86</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>89.92</t>
+          <t>79.78</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2.24</t>
+          <t>1.90</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.1129</t>
+          <t>0.0163</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -2003,36 +2495,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>100039</t>
+          <t>001800</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>富国通胀通缩主题混合</t>
+          <t>华安新乐享灵活配置混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>4.28</t>
+          <t>0.51</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>89.74</t>
+          <t>24.64</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2.27</t>
+          <t>2.46</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0972</t>
+          <t>0.0125</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -2041,36 +2533,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>014126</t>
+          <t>001905</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>华夏中证1000指数增强C</t>
+          <t>华安安益灵活配置混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>8.91</t>
+          <t>0.52</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>90.38</t>
+          <t>20.23</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0.86</t>
+          <t>1.97</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0766</t>
+          <t>0.0102</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -2079,490 +2571,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>007146</t>
+          <t>005696</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>鹏华研究智选混合</t>
+          <t>华安睿明两年定期开放灵活配置混合C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>3.85</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>79.25</t>
+          <t>82.47</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>1.86</t>
+          <t>2.72</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0716</t>
+          <t>0.0033</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>004332</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>恒生前海沪港深新兴产业精选混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.60</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>94.47</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>9.32</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0559</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>003858</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>前海开源周期优选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>1.14</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>92.94</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>3.92</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0447</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>005683</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>国寿安保华兴灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>2.19</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>93.43</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>1.96</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0429</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>010780</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>西部利得量化优选一年持有期混合C</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>1.47</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>90.46</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>2.40</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0353</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>630006</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>华商产业升级混合</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0.98</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>90.15</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>3.34</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0327</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
         <v>5</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>011228</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>西部利得量化成长混合C</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>1.68</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>89.79</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>1.34</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0225</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>010765</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>国寿安保华丰混合A</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0.46</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>89.80</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>2.38</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0109</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>014125</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>华夏中证1000指数增强A</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>1.01</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>90.38</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>0.86</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0087</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>011494</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>华泰紫金丰和偏债混合型发起式证券投资基金A</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0.13</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>33.96</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>1.81</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0024</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>001932</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>国寿安保灵活优选混合</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0.14</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>38.62</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>1.30</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.0018</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>011495</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>华泰紫金丰和偏债混合型发起式证券投资基金C</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>33.96</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>1.81</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.0004</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>010766</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>国寿安保华丰混合C</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>89.80</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>2.38</t>
-        </is>
-      </c>
-      <c r="G22" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -2576,128 +2614,90 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>21</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.57</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>3</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.21</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>11</v>
-      </c>
-      <c r="D5" t="n">
-        <v>2.12</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>9</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1.71</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.03</v>
+          <t>002844</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>金鹰多元策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>81.14</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0312</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603876-鼎胜新材.xlsx
+++ b/数据整理/stocks/A股/上证主板/603876-鼎胜新材.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="D2" t="n">
-        <v>1.57</v>
+        <v>12.28</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4</v>
+        <v>1.57</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>0.21</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>2.12</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D6" t="n">
-        <v>1.71</v>
+        <v>2.12</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>9</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.71</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>1</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.03</v>
       </c>
     </row>
@@ -583,6 +600,2640 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H69"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>008985</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东方红启东三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>121.00</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>97.71</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.7026</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010363</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>信澳匠心臻选两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>48.09</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.5870</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009863</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国创新趋势股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>36.04</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.15</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.0776</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010264</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>鹏华成长智选混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>35.33</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>65.51</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7384</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>162201</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>泰达宏利成长混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>17.59</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6262</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>012382</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>泰达宏利新兴景气龙头混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>18.37</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.02</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5897</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>100060</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国高新技术产业混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>16.89</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.20</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4847</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>213008</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>宝盈资源优选混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>9.37</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>85.08</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4113</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>213006</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>宝盈核心优势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>9.16</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>73.82</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3728</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>007345</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>富国科技创新灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>9.68</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.09</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2681</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>550009</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>信诚中小盘混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1914</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>519975</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>长信量化中小盘股票</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>8.16</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1673</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001105</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>信澳转型创新股票</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.43</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1540</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>003131</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>国寿安保强国智造灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1474</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010383</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>宝盈基础产业混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>89.54</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1275</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>008405</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华泰紫金泰盈混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>87.65</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1222</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>008704</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>广发高股息优享混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.85</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1153</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>015440</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>信澳智选先锋一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>48.27</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1006</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010779</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>西部利得量化优选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>88.29</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0937</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>004119</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>广发创新驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>91.75</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0891</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>007146</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>鹏华研究智选混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>76.25</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0891</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>013495</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>信澳产业优选一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>79.40</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0840</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>012383</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>泰达宏利新兴景气龙头混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>91.02</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0745</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010265</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>鹏华成长智选混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>65.51</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0652</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>014135</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>中欧金安量化混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>7.46</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>78.49</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0649</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>005683</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>国寿安保华兴灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>92.53</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0614</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>001990</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>中欧数据挖掘多因子灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>82.13</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0591</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>005977</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>中信保诚至兴灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0549</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>002067</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>诺安精选回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>43.90</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0477</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>004332</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>恒生前海沪港深新兴产业精选混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>92.74</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>9.89</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0465</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>007251</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>广发睿享稳健增利混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>32.79</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0452</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>008705</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>广发高股息优享混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>92.85</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0342</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>008533</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>惠升惠兴混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>46.03</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0326</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>229002</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>泰达宏利逆向策略混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0307</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>001017</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>泰达宏利改革动力量化策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>91.83</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0282</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>015441</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>信澳智选先锋一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>48.27</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0254</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>015608</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>信澳转型创新股票C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>91.43</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0254</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>010780</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>西部利得量化优选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>88.29</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0234</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>016256</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>信诚中小盘混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0211</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>002145</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>诺安景鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>77.19</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0208</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>008404</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>华泰紫金泰盈混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>87.65</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0206</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>010205</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>国寿安保裕安混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>25.65</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0178</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>005978</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>中信保诚至兴灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0173</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>013204</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>恒生前海恒源天利债A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>32.00</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0162</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>010206</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>国寿安保裕安混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>25.65</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0159</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>004234</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>中欧数据挖掘多因子灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>82.13</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0129</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>015148</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>华安中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>91.03</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0111</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>010384</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>宝盈基础产业混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>89.54</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>011702</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>广发睿享稳健增利混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>32.79</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>000241</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>宝盈核心优势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>73.82</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>014136</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>中欧金安量化混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>78.49</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>013496</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>信澳产业优选一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>79.40</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>320016</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>诺安多策略混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>76.95</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>015149</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>华安中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>91.03</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>014692</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>中加量化研选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>68.41</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>001932</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>国寿安保灵活优选混合</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>34.76</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>015694</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>瑞达策略优选混合A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>67.87</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>011494</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>华泰紫金丰和偏债混合发起A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>31.18</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>014691</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>中加量化研选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>68.41</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>001419</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>泰达宏利新思路灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>33.42</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>004212</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>中融量化智选混合A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>93.01</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>008534</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>惠升惠兴混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>46.03</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>011495</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>华泰紫金丰和偏债混合发起C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>31.18</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>004783</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>中融量化智选混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>93.01</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>003550</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>泰达宏利改革动力量化策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>91.83</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>013205</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>恒生前海恒源天利债C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>32.00</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G67" t="n">
+        <v>0</v>
+      </c>
+      <c r="H67" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>015695</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>瑞达策略优选混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>67.87</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G68" t="n">
+        <v>0</v>
+      </c>
+      <c r="H68" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>002314</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>泰达宏利新思路灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>33.42</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G69" t="n">
+        <v>0</v>
+      </c>
+      <c r="H69" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1434,7 +4085,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1604,7 +4255,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1736,7 +4387,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2210,7 +4861,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2608,7 +5259,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/603876-鼎胜新材.xlsx
+++ b/数据整理/stocks/A股/上证主板/603876-鼎胜新材.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="D2" t="n">
-        <v>12.28</v>
+        <v>8.640000000000001</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="D3" t="n">
-        <v>1.57</v>
+        <v>12.28</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4</v>
+        <v>1.57</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>0.21</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>2.12</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D7" t="n">
-        <v>1.71</v>
+        <v>2.12</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>9</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.71</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>1</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>0.03</v>
       </c>
     </row>
@@ -600,6 +617,1688 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H44"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>166019</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧价值智选回报混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>71.44</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.96</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.3932</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>013220</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧新兴价值一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>36.58</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.2291</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010363</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>信澳匠心臻选两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>37.44</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.1606</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>004235</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中欧价值智选回报混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>29.51</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.96</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.9886</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>013221</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中欧新兴价值一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>16.10</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5410</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>014404</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中欧多元价值三年持有混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>14.47</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.65</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4876</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009011</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华夏睿阳一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>14.05</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>82.02</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3751</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001887</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中欧价值智选回报混合E</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>9.15</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.96</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3065</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>610004</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>信澳中小盘混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.92</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2581</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001105</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>信澳转型创新股票</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1071</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>004119</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>广发创新驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>74.78</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0885</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>013495</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>信澳产业优选一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>79.53</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0868</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>007146</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>鹏华研究智选混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>79.83</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0652</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>014135</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中欧金安量化混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>7.09</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.01</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0624</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005683</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>国寿安保华兴灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.97</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0591</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>880007</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>招商资管智远成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>90.93</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0542</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>014405</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中欧多元价值三年持有混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.65</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0458</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>003131</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>国寿安保强国智造灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0451</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>004332</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>恒生前海沪港深新兴产业精选混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>75.81</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>6.95</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0341</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001990</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中欧数据挖掘多因子灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>90.14</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0290</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011735</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>国寿安保裕丰混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>27.90</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0224</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>881007</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>招商资管智远成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>90.93</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0218</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010206</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>国寿安保裕安混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>33.78</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0206</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>970113</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>兴证资管金麒麟兴睿优选一年持有期混合B</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>84.89</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0202</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>010205</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>国寿安保裕安混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>33.78</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0195</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>004234</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>中欧数据挖掘多因子灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>90.14</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>001420</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>南方大数据300指数A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.56</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0171</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>016370</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>信澳业绩驱动混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>30.31</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0135</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>015608</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>信澳转型创新股票C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>011734</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>国寿安保裕丰混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>27.90</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>013383</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>恒生前海高端制造混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>84.98</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>9.15</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>014136</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>中欧金安量化混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>90.01</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>013496</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>信澳产业优选一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>79.53</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>016371</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>信澳业绩驱动混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>30.31</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>011771</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>国寿安保稳隆混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>32.85</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>013384</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>恒生前海高端制造混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>84.98</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>9.15</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>001426</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>南方大数据300指数C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>93.56</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>001932</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>国寿安保灵活优选混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>39.50</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>008533</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>惠升惠兴混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>23.29</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>970112</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>兴证资管金麒麟兴睿优选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>84.89</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>970114</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>兴证资管金麒麟兴睿优选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>84.89</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G42" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>011772</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>国寿安保稳隆混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>32.85</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>008534</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>惠升惠兴混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>23.29</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3233,7 +4932,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4085,7 +5784,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4255,7 +5954,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4387,7 +6086,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4861,7 +6560,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5259,7 +6958,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
